--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E47E4E-303F-46B2-8AE0-B41764E9B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE551A-28A5-4D86-9D2B-EDBF376A93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="R131" sqref="R131"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE551A-28A5-4D86-9D2B-EDBF376A93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED8939-8219-4BB7-8B37-AD4D2C5FB930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>2009. 06</t>
   </si>
@@ -488,6 +488,14 @@
   </si>
   <si>
     <t>2021. 09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022. 02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022. 03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,15 +824,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="N151" sqref="N151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +840,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,7 +848,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -848,7 +856,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,7 +864,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +872,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,7 +880,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,7 +888,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,1156 +896,1601 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>601</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>602</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>603</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>604</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>605</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>606</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>607</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>608</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>609</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>610</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>611</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>612</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>613</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>614</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>615</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>616</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>617</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>618</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>619</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>621</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>622</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>623</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>624</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>625</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>626</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>627</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>628</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>629</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>630</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>631</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>632</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>633</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>634</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>635</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>636</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>637</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>638</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>639</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>641</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>642</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>643</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>644</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>645</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>646</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>647</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>648</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>649</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>651</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>652</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>653</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>654</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>655</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>656</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>657</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>658</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>659</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>660</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>661</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>662</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>663</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>664</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>665</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>666</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>667</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>668</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>669</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>670</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>671</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>672</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>673</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>674</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>675</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>676</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>677</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>678</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="1">
         <v>679</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>680</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>681</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>682</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>683</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>684</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>685</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>686</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>687</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>688</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>689</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>690</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>691</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>692</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="1">
         <v>693</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="1">
         <v>694</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="1">
         <v>695</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="1">
         <v>696</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="1">
         <v>697</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="1">
         <v>698</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="1">
         <v>699</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>700</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>701</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1">
         <v>702</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="1">
         <v>703</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="1">
         <v>704</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="1">
         <v>705</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="1">
         <v>706</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>707</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>708</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="1">
         <v>709</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="1">
         <v>710</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="1">
         <v>711</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="1">
         <v>712</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>713</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="1">
         <v>715</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="1">
         <v>716</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>717</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="1">
         <v>718</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="1">
         <v>719</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="1">
         <v>720</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="1">
         <v>721</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="1">
         <v>722</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="1">
         <v>723</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="1">
         <v>724</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>725</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="1">
         <v>726</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="1">
         <v>727</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="1">
         <v>728</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="1">
         <v>729</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="1">
         <v>730</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="1">
         <v>731</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="1">
         <v>732</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="1">
         <v>733</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="1">
         <v>734</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="1">
         <v>735</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="1">
         <v>736</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="1">
         <v>737</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="1">
         <v>738</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="1">
         <v>739</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="1">
         <v>740</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>741</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>742</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>743</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED8939-8219-4BB7-8B37-AD4D2C5FB930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB90F1E-AB97-4161-8CB6-50FBD14389B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63360" yWindow="9330" windowWidth="7500" windowHeight="6210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,15 +824,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C151"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,7 +864,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,7 +872,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -880,7 +880,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,7 +888,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,1580 +896,1151 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>601</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>602</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>603</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>604</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>605</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>606</v>
       </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>607</v>
       </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>608</v>
       </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>609</v>
       </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>610</v>
       </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>611</v>
       </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>612</v>
       </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>613</v>
       </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>614</v>
       </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>615</v>
       </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>616</v>
       </c>
-      <c r="C24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>617</v>
       </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>618</v>
       </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>619</v>
       </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>620</v>
       </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>621</v>
       </c>
-      <c r="C29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>622</v>
       </c>
-      <c r="C30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>623</v>
       </c>
-      <c r="C31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>624</v>
       </c>
-      <c r="C32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>625</v>
       </c>
-      <c r="C33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>626</v>
       </c>
-      <c r="C34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>627</v>
       </c>
-      <c r="C35">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>628</v>
       </c>
-      <c r="C36">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>629</v>
       </c>
-      <c r="C37">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>630</v>
       </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>631</v>
       </c>
-      <c r="C39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>632</v>
       </c>
-      <c r="C40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>633</v>
       </c>
-      <c r="C41">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>634</v>
       </c>
-      <c r="C42">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>635</v>
       </c>
-      <c r="C43">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>636</v>
       </c>
-      <c r="C44">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>637</v>
       </c>
-      <c r="C45">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>638</v>
       </c>
-      <c r="C46">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>639</v>
       </c>
-      <c r="C47">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>640</v>
       </c>
-      <c r="C48">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>641</v>
       </c>
-      <c r="C49">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>642</v>
       </c>
-      <c r="C50">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>643</v>
       </c>
-      <c r="C51">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>644</v>
       </c>
-      <c r="C52">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>645</v>
       </c>
-      <c r="C53">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>646</v>
       </c>
-      <c r="C54">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>647</v>
       </c>
-      <c r="C55">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>648</v>
       </c>
-      <c r="C56">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>649</v>
       </c>
-      <c r="C57">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>650</v>
       </c>
-      <c r="C58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>651</v>
       </c>
-      <c r="C59">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>652</v>
       </c>
-      <c r="C60">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>653</v>
       </c>
-      <c r="C61">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>654</v>
       </c>
-      <c r="C62">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>655</v>
       </c>
-      <c r="C63">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>656</v>
       </c>
-      <c r="C64">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>657</v>
       </c>
-      <c r="C65">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>658</v>
       </c>
-      <c r="C66">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>659</v>
       </c>
-      <c r="C67">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>660</v>
       </c>
-      <c r="C68">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>661</v>
       </c>
-      <c r="C69">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>662</v>
       </c>
-      <c r="C70">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>663</v>
       </c>
-      <c r="C71">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>664</v>
       </c>
-      <c r="C72">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>665</v>
       </c>
-      <c r="C73">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>666</v>
       </c>
-      <c r="C74">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>667</v>
       </c>
-      <c r="C75">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>668</v>
       </c>
-      <c r="C76">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>669</v>
       </c>
-      <c r="C77">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>670</v>
       </c>
-      <c r="C78">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>671</v>
       </c>
-      <c r="C79">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>672</v>
       </c>
-      <c r="C80">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>673</v>
       </c>
-      <c r="C81">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>674</v>
       </c>
-      <c r="C82">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>675</v>
       </c>
-      <c r="C83">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>676</v>
       </c>
-      <c r="C84">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>677</v>
       </c>
-      <c r="C85">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>678</v>
       </c>
-      <c r="C86">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="1">
         <v>679</v>
       </c>
-      <c r="C87">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>680</v>
       </c>
-      <c r="C88">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>681</v>
       </c>
-      <c r="C89">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>682</v>
       </c>
-      <c r="C90">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>683</v>
       </c>
-      <c r="C91">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>684</v>
       </c>
-      <c r="C92">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>685</v>
       </c>
-      <c r="C93">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>686</v>
       </c>
-      <c r="C94">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>687</v>
       </c>
-      <c r="C95">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>688</v>
       </c>
-      <c r="C96">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>689</v>
       </c>
-      <c r="C97">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>690</v>
       </c>
-      <c r="C98">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>691</v>
       </c>
-      <c r="C99">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>692</v>
       </c>
-      <c r="C100">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="1">
         <v>693</v>
       </c>
-      <c r="C101">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="1">
         <v>694</v>
       </c>
-      <c r="C102">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="1">
         <v>695</v>
       </c>
-      <c r="C103">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="1">
         <v>696</v>
       </c>
-      <c r="C104">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="1">
         <v>697</v>
       </c>
-      <c r="C105">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="1">
         <v>698</v>
       </c>
-      <c r="C106">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="1">
         <v>699</v>
       </c>
-      <c r="C107">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>700</v>
       </c>
-      <c r="C108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>701</v>
       </c>
-      <c r="C109">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1">
         <v>702</v>
       </c>
-      <c r="C110">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="1">
         <v>703</v>
       </c>
-      <c r="C111">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="1">
         <v>704</v>
       </c>
-      <c r="C112">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="1">
         <v>705</v>
       </c>
-      <c r="C113">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="1">
         <v>706</v>
       </c>
-      <c r="C114">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>707</v>
       </c>
-      <c r="C115">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>708</v>
       </c>
-      <c r="C116">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="1">
         <v>709</v>
       </c>
-      <c r="C117">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="1">
         <v>710</v>
       </c>
-      <c r="C118">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="1">
         <v>711</v>
       </c>
-      <c r="C119">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="1">
         <v>712</v>
       </c>
-      <c r="C120">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>713</v>
       </c>
-      <c r="C121">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>714</v>
       </c>
-      <c r="C122">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="1">
         <v>715</v>
       </c>
-      <c r="C123">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="1">
         <v>716</v>
       </c>
-      <c r="C124">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>717</v>
       </c>
-      <c r="C125">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="1">
         <v>718</v>
       </c>
-      <c r="C126">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="1">
         <v>719</v>
       </c>
-      <c r="C127">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="1">
         <v>720</v>
       </c>
-      <c r="C128">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="1">
         <v>721</v>
       </c>
-      <c r="C129">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="1">
         <v>722</v>
       </c>
-      <c r="C130">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="1">
         <v>723</v>
       </c>
-      <c r="C131">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="1">
         <v>724</v>
       </c>
-      <c r="C132">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>725</v>
       </c>
-      <c r="C133">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="1">
         <v>726</v>
       </c>
-      <c r="C134">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="1">
         <v>727</v>
       </c>
-      <c r="C135">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="1">
         <v>728</v>
       </c>
-      <c r="C136">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="1">
         <v>729</v>
       </c>
-      <c r="C137">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="1">
         <v>730</v>
       </c>
-      <c r="C138">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="1">
         <v>731</v>
       </c>
-      <c r="C139">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="1">
         <v>732</v>
       </c>
-      <c r="C140">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="1">
         <v>733</v>
       </c>
-      <c r="C141">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="1">
         <v>734</v>
       </c>
-      <c r="C142">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="1">
         <v>735</v>
       </c>
-      <c r="C143">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="1">
         <v>736</v>
       </c>
-      <c r="C144">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="1">
         <v>737</v>
       </c>
-      <c r="C145">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="1">
         <v>738</v>
       </c>
-      <c r="C146">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="1">
         <v>739</v>
       </c>
-      <c r="C147">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="1">
         <v>740</v>
       </c>
-      <c r="C148">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>741</v>
       </c>
-      <c r="C149">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>742</v>
       </c>
-      <c r="C150">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>743</v>
       </c>
-      <c r="C151">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -2477,7 +2048,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -2485,7 +2056,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB90F1E-AB97-4161-8CB6-50FBD14389B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B562EB-53E6-4A9B-8C7A-7AE9F0852AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63360" yWindow="9330" windowWidth="7500" windowHeight="6210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>2009. 06</t>
   </si>
@@ -497,6 +497,72 @@
   <si>
     <t>2022. 03</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022m4</t>
+  </si>
+  <si>
+    <t>2022m5</t>
+  </si>
+  <si>
+    <t>2022m6</t>
+  </si>
+  <si>
+    <t>2022m7</t>
+  </si>
+  <si>
+    <t>2022m8</t>
+  </si>
+  <si>
+    <t>2022m9</t>
+  </si>
+  <si>
+    <t>2022m10</t>
+  </si>
+  <si>
+    <t>2022m11</t>
+  </si>
+  <si>
+    <t>2022m12</t>
+  </si>
+  <si>
+    <t>2023m1</t>
+  </si>
+  <si>
+    <t>2023m2</t>
+  </si>
+  <si>
+    <t>2023m3</t>
+  </si>
+  <si>
+    <t>2023m4</t>
+  </si>
+  <si>
+    <t>2023m5</t>
+  </si>
+  <si>
+    <t>2023m6</t>
+  </si>
+  <si>
+    <t>2023m7</t>
+  </si>
+  <si>
+    <t>2023m8</t>
+  </si>
+  <si>
+    <t>2023m9</t>
+  </si>
+  <si>
+    <t>2023m10</t>
+  </si>
+  <si>
+    <t>2023m11</t>
+  </si>
+  <si>
+    <t>2023m12</t>
+  </si>
+  <si>
+    <t>2024m1</t>
   </si>
 </sst>
 </file>
@@ -824,10 +890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2064,6 +2130,187 @@
         <v>746</v>
       </c>
     </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B562EB-53E6-4A9B-8C7A-7AE9F0852AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C4FA6-FB77-4832-962C-56D085977264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -588,13 +588,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -609,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -617,6 +629,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -890,10 +906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1810,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -1802,7 +1818,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -1810,7 +1826,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -1818,7 +1834,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -1826,7 +1842,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -1850,295 +1866,581 @@
         <v>711</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="1">
         <v>712</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <f t="shared" ref="D105:D155" si="0">B120</f>
+        <v>712</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>713</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="1">
         <v>715</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <f t="shared" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="1">
         <v>716</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <f t="shared" si="0"/>
+        <v>716</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>717</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <f t="shared" si="0"/>
+        <v>717</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="1">
         <v>718</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <f t="shared" si="0"/>
+        <v>718</v>
+      </c>
+      <c r="E126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="1">
         <v>719</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <f t="shared" si="0"/>
+        <v>719</v>
+      </c>
+      <c r="E127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="1">
         <v>720</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" s="4"/>
+      <c r="D128">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="E128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="1">
         <v>721</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" s="4"/>
+      <c r="D129">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="1">
         <v>722</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" s="4"/>
+      <c r="D130">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="E130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="1">
         <v>723</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" s="4"/>
+      <c r="D131">
+        <f t="shared" si="0"/>
+        <v>723</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="1">
         <v>724</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="0"/>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>725</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="1">
         <v>726</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="0"/>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="1">
         <v>727</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="0"/>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="1">
         <v>728</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="0"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="1">
         <v>729</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="1">
         <v>730</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="1">
         <v>731</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="0"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="1">
         <v>732</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="E140">
+        <v>731</v>
+      </c>
+      <c r="F140">
+        <v>719</v>
+      </c>
+      <c r="G140">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="1">
         <v>733</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="0"/>
+        <v>733</v>
+      </c>
+      <c r="E141">
+        <v>712</v>
+      </c>
+      <c r="F141" s="3">
+        <v>696</v>
+      </c>
+      <c r="G141">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="1">
         <v>734</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="0"/>
+        <v>734</v>
+      </c>
+      <c r="E142">
+        <f>E140-E141</f>
+        <v>19</v>
+      </c>
+      <c r="F142">
+        <f>F140-F141</f>
+        <v>23</v>
+      </c>
+      <c r="G142">
+        <f>G140-G141</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="1">
         <v>735</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="1">
         <v>736</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="0"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="1">
         <v>737</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="0"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="1">
         <v>738</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>15</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="1">
         <v>739</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>16</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="0"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="1">
         <v>740</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>17</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="0"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>741</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>18</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>742</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>19</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>743</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="0"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>744</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>21</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="0"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="1">
         <v>745</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>22</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="0"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="1">
         <v>746</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>23</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" s="1">
         <v>747</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -2146,7 +2448,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -2154,7 +2456,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -2162,7 +2464,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -2170,7 +2472,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C4FA6-FB77-4832-962C-56D085977264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB2E3A1-5C3B-4E83-8C74-FD52BDFC77DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>2009. 06</t>
   </si>
@@ -563,6 +563,94 @@
   </si>
   <si>
     <t>2024m1</t>
+  </si>
+  <si>
+    <t>2009. 04</t>
+  </si>
+  <si>
+    <t>2009. 03</t>
+  </si>
+  <si>
+    <t>2009. 02</t>
+  </si>
+  <si>
+    <t>2009. 01</t>
+  </si>
+  <si>
+    <t>2009. 05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007. 01</t>
+  </si>
+  <si>
+    <t>2007. 02</t>
+  </si>
+  <si>
+    <t>2007. 03</t>
+  </si>
+  <si>
+    <t>2007. 04</t>
+  </si>
+  <si>
+    <t>2007. 05</t>
+  </si>
+  <si>
+    <t>2007. 06</t>
+  </si>
+  <si>
+    <t>2007. 07</t>
+  </si>
+  <si>
+    <t>2007. 08</t>
+  </si>
+  <si>
+    <t>2007. 09</t>
+  </si>
+  <si>
+    <t>2007. 10</t>
+  </si>
+  <si>
+    <t>2007. 11</t>
+  </si>
+  <si>
+    <t>2007. 12</t>
+  </si>
+  <si>
+    <t>2008. 01</t>
+  </si>
+  <si>
+    <t>2008. 02</t>
+  </si>
+  <si>
+    <t>2008. 03</t>
+  </si>
+  <si>
+    <t>2008. 04</t>
+  </si>
+  <si>
+    <t>2008. 05</t>
+  </si>
+  <si>
+    <t>2008. 06</t>
+  </si>
+  <si>
+    <t>2008. 07</t>
+  </si>
+  <si>
+    <t>2008. 08</t>
+  </si>
+  <si>
+    <t>2008. 09</t>
+  </si>
+  <si>
+    <t>2008. 10</t>
+  </si>
+  <si>
+    <t>2008. 11</t>
+  </si>
+  <si>
+    <t>2008. 12</t>
   </si>
 </sst>
 </file>
@@ -595,7 +683,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +693,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -633,6 +727,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -906,1710 +1003,1942 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A7:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115:E119"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>598</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1">
-        <v>599</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1">
-        <v>600</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1">
-        <v>601</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="B10" s="1">
-        <v>602</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1">
-        <v>603</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1">
-        <v>604</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="B13" s="1">
-        <v>605</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="B14" s="1">
-        <v>606</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1">
-        <v>607</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1">
-        <v>608</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1">
-        <v>609</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>610</v>
+        <v>192</v>
+      </c>
+      <c r="B18" s="5">
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>611</v>
+        <v>193</v>
+      </c>
+      <c r="B19" s="5">
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>612</v>
+        <v>194</v>
+      </c>
+      <c r="B20" s="5">
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>613</v>
+        <v>195</v>
+      </c>
+      <c r="B21" s="5">
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>614</v>
+        <v>196</v>
+      </c>
+      <c r="B22" s="5">
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>615</v>
+        <v>197</v>
+      </c>
+      <c r="B23" s="5">
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>616</v>
+        <v>198</v>
+      </c>
+      <c r="B24" s="5">
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>617</v>
+        <v>199</v>
+      </c>
+      <c r="B25" s="5">
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>618</v>
+        <v>200</v>
+      </c>
+      <c r="B26" s="5">
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>619</v>
+        <v>201</v>
+      </c>
+      <c r="B27" s="5">
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>620</v>
+        <v>202</v>
+      </c>
+      <c r="B28" s="5">
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>621</v>
+        <v>203</v>
+      </c>
+      <c r="B29" s="5">
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>622</v>
+        <v>204</v>
+      </c>
+      <c r="B30" s="5">
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>623</v>
+        <v>179</v>
+      </c>
+      <c r="B31" s="5">
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>624</v>
+        <v>178</v>
+      </c>
+      <c r="B32" s="5">
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>625</v>
+        <v>177</v>
+      </c>
+      <c r="B33" s="5">
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>626</v>
+        <v>176</v>
+      </c>
+      <c r="B34" s="5">
+        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>627</v>
+      <c r="A35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="5">
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>628</v>
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>629</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>630</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1">
-        <v>631</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
-        <v>632</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>633</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>634</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>635</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>636</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>637</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1">
-        <v>638</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1">
-        <v>639</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
-        <v>640</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1">
-        <v>641</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1">
-        <v>642</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B51" s="1">
-        <v>643</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
-        <v>644</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1">
-        <v>645</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1">
-        <v>646</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1">
-        <v>647</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1">
-        <v>648</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1">
-        <v>649</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1">
-        <v>650</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
-        <v>651</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1">
-        <v>652</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1">
-        <v>653</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B62" s="1">
-        <v>654</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1">
-        <v>655</v>
+        <v>620</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1">
-        <v>656</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1">
-        <v>657</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B66" s="1">
-        <v>658</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1">
-        <v>659</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1">
-        <v>660</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1">
-        <v>661</v>
+        <v>626</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B70" s="1">
-        <v>662</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1">
-        <v>663</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
-        <v>664</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1">
-        <v>665</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1">
-        <v>666</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B75" s="1">
-        <v>667</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
-        <v>668</v>
+        <v>633</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1">
-        <v>669</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1">
-        <v>670</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B79" s="1">
-        <v>671</v>
+        <v>636</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B80" s="1">
-        <v>672</v>
+        <v>637</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1">
-        <v>673</v>
+        <v>638</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B82" s="1">
-        <v>674</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B83" s="1">
-        <v>675</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B84" s="1">
-        <v>676</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B85" s="1">
-        <v>677</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B86" s="1">
-        <v>678</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B87" s="1">
-        <v>679</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B88" s="1">
-        <v>680</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B89" s="1">
-        <v>681</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1">
-        <v>682</v>
+        <v>647</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B91" s="1">
-        <v>683</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B92" s="1">
-        <v>684</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B93" s="1">
-        <v>685</v>
+        <v>650</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B94" s="1">
-        <v>686</v>
+        <v>651</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B95" s="1">
-        <v>687</v>
+        <v>652</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B96" s="1">
-        <v>688</v>
+        <v>653</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B97" s="1">
-        <v>689</v>
+        <v>654</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1">
-        <v>690</v>
+        <v>655</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1">
-        <v>691</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B100" s="1">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B101" s="1">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B102" s="1">
-        <v>694</v>
+        <v>659</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B103" s="1">
-        <v>695</v>
+        <v>660</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B104" s="1">
-        <v>696</v>
+        <v>661</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B105" s="1">
-        <v>697</v>
+        <v>662</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B106" s="1">
-        <v>698</v>
+        <v>663</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B107" s="1">
-        <v>699</v>
+        <v>664</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B108" s="1">
-        <v>700</v>
+        <v>665</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B109" s="1">
-        <v>701</v>
+        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B110" s="1">
-        <v>702</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B111" s="1">
-        <v>703</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" s="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127" s="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" s="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B132" s="1">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B136" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" s="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B139" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B140" s="1">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B147" s="1">
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B148" s="1">
         <v>705</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B149" s="1">
         <v>706</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B150" s="1">
         <v>707</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B151" s="1">
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B152" s="1">
         <v>709</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B153" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B154" s="1">
         <v>711</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B155" s="1">
         <v>712</v>
       </c>
-      <c r="D120">
-        <f t="shared" ref="D105:D155" si="0">B120</f>
+      <c r="D155">
+        <f t="shared" ref="D155:D190" si="0">B155</f>
         <v>712</v>
       </c>
-      <c r="E120">
+      <c r="E155">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B156" s="1">
         <v>713</v>
       </c>
-      <c r="D121">
+      <c r="D156">
         <f t="shared" si="0"/>
         <v>713</v>
       </c>
-      <c r="E121">
+      <c r="E156">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B157" s="1">
         <v>714</v>
       </c>
-      <c r="D122">
+      <c r="D157">
         <f t="shared" si="0"/>
         <v>714</v>
       </c>
-      <c r="E122">
+      <c r="E157">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B158" s="1">
         <v>715</v>
       </c>
-      <c r="D123">
+      <c r="D158">
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="E123">
+      <c r="E158">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B159" s="1">
         <v>716</v>
       </c>
-      <c r="D124">
+      <c r="D159">
         <f t="shared" si="0"/>
         <v>716</v>
       </c>
-      <c r="E124">
+      <c r="E159">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B160" s="1">
         <v>717</v>
       </c>
-      <c r="D125">
+      <c r="D160">
         <f t="shared" si="0"/>
         <v>717</v>
       </c>
-      <c r="E125">
+      <c r="E160">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B161" s="1">
         <v>718</v>
       </c>
-      <c r="D126">
+      <c r="D161">
         <f t="shared" si="0"/>
         <v>718</v>
       </c>
-      <c r="E126">
+      <c r="E161">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B162" s="1">
         <v>719</v>
       </c>
-      <c r="D127">
+      <c r="D162">
         <f t="shared" si="0"/>
         <v>719</v>
       </c>
-      <c r="E127">
+      <c r="E162">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B163" s="5">
         <v>720</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="D128">
+      <c r="C163" s="4"/>
+      <c r="D163">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="E128">
+      <c r="E163">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B164" s="5">
         <v>721</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129">
+      <c r="C164" s="4"/>
+      <c r="D164">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="E129">
+      <c r="E164">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B165" s="5">
         <v>722</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130">
+      <c r="C165" s="4"/>
+      <c r="D165">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="E130">
+      <c r="E165">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B166" s="5">
         <v>723</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131">
+      <c r="C166" s="4"/>
+      <c r="D166">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="E131">
+      <c r="E166">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B167" s="1">
         <v>724</v>
       </c>
-      <c r="C132">
+      <c r="C167">
         <v>1</v>
       </c>
-      <c r="D132">
+      <c r="D167">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B168" s="1">
         <v>725</v>
       </c>
-      <c r="C133">
+      <c r="C168">
         <v>2</v>
       </c>
-      <c r="D133">
+      <c r="D168">
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B169" s="1">
         <v>726</v>
       </c>
-      <c r="C134">
+      <c r="C169">
         <v>3</v>
       </c>
-      <c r="D134">
+      <c r="D169">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B170" s="1">
         <v>727</v>
       </c>
-      <c r="C135">
+      <c r="C170">
         <v>4</v>
       </c>
-      <c r="D135">
+      <c r="D170">
         <f t="shared" si="0"/>
         <v>727</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B171" s="1">
         <v>728</v>
       </c>
-      <c r="C136">
+      <c r="C171">
         <v>5</v>
       </c>
-      <c r="D136">
+      <c r="D171">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B172" s="1">
         <v>729</v>
       </c>
-      <c r="C137">
+      <c r="C172">
         <v>6</v>
       </c>
-      <c r="D137">
+      <c r="D172">
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B173" s="1">
         <v>730</v>
       </c>
-      <c r="C138">
+      <c r="C173">
         <v>7</v>
       </c>
-      <c r="D138">
+      <c r="D173">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B174" s="1">
         <v>731</v>
       </c>
-      <c r="C139">
+      <c r="C174">
         <v>8</v>
       </c>
-      <c r="D139">
+      <c r="D174">
         <f t="shared" si="0"/>
         <v>731</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B175" s="1">
         <v>732</v>
       </c>
-      <c r="C140">
+      <c r="C175">
         <v>9</v>
       </c>
-      <c r="D140">
+      <c r="D175">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="E140">
+      <c r="E175">
         <v>731</v>
       </c>
-      <c r="F140">
+      <c r="F175">
         <v>719</v>
       </c>
-      <c r="G140">
+      <c r="G175">
         <v>724</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B176" s="1">
         <v>733</v>
       </c>
-      <c r="C141">
+      <c r="C176">
         <v>10</v>
       </c>
-      <c r="D141">
+      <c r="D176">
         <f t="shared" si="0"/>
         <v>733</v>
       </c>
-      <c r="E141">
+      <c r="E176">
         <v>712</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F176" s="3">
         <v>696</v>
       </c>
-      <c r="G141">
+      <c r="G176">
         <v>708</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B177" s="1">
         <v>734</v>
       </c>
-      <c r="C142">
+      <c r="C177">
         <v>11</v>
       </c>
-      <c r="D142">
+      <c r="D177">
         <f t="shared" si="0"/>
         <v>734</v>
       </c>
-      <c r="E142">
-        <f>E140-E141</f>
+      <c r="E177">
+        <f>E175-E176</f>
         <v>19</v>
       </c>
-      <c r="F142">
-        <f>F140-F141</f>
+      <c r="F177">
+        <f>F175-F176</f>
         <v>23</v>
       </c>
-      <c r="G142">
-        <f>G140-G141</f>
+      <c r="G177">
+        <f>G175-G176</f>
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B178" s="1">
         <v>735</v>
       </c>
-      <c r="C143">
+      <c r="C178">
         <v>12</v>
       </c>
-      <c r="D143">
+      <c r="D178">
         <f t="shared" si="0"/>
         <v>735</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B179" s="1">
         <v>736</v>
       </c>
-      <c r="C144">
+      <c r="C179">
         <v>13</v>
       </c>
-      <c r="D144">
+      <c r="D179">
         <f t="shared" si="0"/>
         <v>736</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B180" s="1">
         <v>737</v>
       </c>
-      <c r="C145">
+      <c r="C180">
         <v>14</v>
       </c>
-      <c r="D145">
+      <c r="D180">
         <f t="shared" si="0"/>
         <v>737</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B181" s="1">
         <v>738</v>
       </c>
-      <c r="C146">
+      <c r="C181">
         <v>15</v>
       </c>
-      <c r="D146">
+      <c r="D181">
         <f t="shared" si="0"/>
         <v>738</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B182" s="1">
         <v>739</v>
       </c>
-      <c r="C147">
+      <c r="C182">
         <v>16</v>
       </c>
-      <c r="D147">
+      <c r="D182">
         <f t="shared" si="0"/>
         <v>739</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B183" s="1">
         <v>740</v>
       </c>
-      <c r="C148">
+      <c r="C183">
         <v>17</v>
       </c>
-      <c r="D148">
+      <c r="D183">
         <f t="shared" si="0"/>
         <v>740</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B184" s="1">
         <v>741</v>
       </c>
-      <c r="C149">
+      <c r="C184">
         <v>18</v>
       </c>
-      <c r="D149">
+      <c r="D184">
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B185" s="1">
         <v>742</v>
       </c>
-      <c r="C150">
+      <c r="C185">
         <v>19</v>
       </c>
-      <c r="D150">
+      <c r="D185">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B186" s="1">
         <v>743</v>
       </c>
-      <c r="C151">
+      <c r="C186">
         <v>20</v>
       </c>
-      <c r="D151">
+      <c r="D186">
         <f t="shared" si="0"/>
         <v>743</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B187" s="1">
         <v>744</v>
       </c>
-      <c r="C152">
+      <c r="C187">
         <v>21</v>
       </c>
-      <c r="D152">
+      <c r="D187">
         <f t="shared" si="0"/>
         <v>744</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B188" s="1">
         <v>745</v>
       </c>
-      <c r="C153">
+      <c r="C188">
         <v>22</v>
       </c>
-      <c r="D153">
+      <c r="D188">
         <f t="shared" si="0"/>
         <v>745</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B189" s="1">
         <v>746</v>
       </c>
-      <c r="C154">
+      <c r="C189">
         <v>23</v>
       </c>
-      <c r="D154">
+      <c r="D189">
         <f t="shared" si="0"/>
         <v>746</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B190" s="1">
         <v>747</v>
       </c>
-      <c r="C155">
+      <c r="C190">
         <v>24</v>
       </c>
-      <c r="D155">
+      <c r="D190">
         <f t="shared" si="0"/>
         <v>747</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B191" s="1">
         <v>748</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B192" s="1">
         <v>749</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B193" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B194" s="1">
         <v>751</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B195" s="1">
         <v>752</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B196" s="1">
         <v>753</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B197" s="1">
         <v>754</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B198" s="1">
         <v>755</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B199" s="1">
         <v>756</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B200" s="1">
         <v>757</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B201" s="1">
         <v>758</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B202" s="1">
         <v>759</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B203" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B204" s="1">
         <v>761</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B205" s="1">
         <v>762</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B206" s="1">
         <v>763</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B207" s="1">
         <v>764</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B208" s="1">
         <v>765</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B209" s="1">
         <v>766</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B210" s="1">
         <v>767</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B211" s="1">
         <v>768</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="1">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="1">
         <v>769</v>
       </c>
     </row>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB2E3A1-5C3B-4E83-8C74-FD52BDFC77DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99640C7-0BA7-4033-A76F-596198CD8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>2009. 06</t>
   </si>
@@ -651,6 +651,294 @@
   </si>
   <si>
     <t>2008. 12</t>
+  </si>
+  <si>
+    <t>1999.01</t>
+  </si>
+  <si>
+    <t>1999.02</t>
+  </si>
+  <si>
+    <t>1999.03</t>
+  </si>
+  <si>
+    <t>1999.04</t>
+  </si>
+  <si>
+    <t>1999.05</t>
+  </si>
+  <si>
+    <t>1999.06</t>
+  </si>
+  <si>
+    <t>1999.07</t>
+  </si>
+  <si>
+    <t>1999.08</t>
+  </si>
+  <si>
+    <t>1999.09</t>
+  </si>
+  <si>
+    <t>1999.10</t>
+  </si>
+  <si>
+    <t>1999.11</t>
+  </si>
+  <si>
+    <t>1999.12</t>
+  </si>
+  <si>
+    <t>2000.01</t>
+  </si>
+  <si>
+    <t>2000.02</t>
+  </si>
+  <si>
+    <t>2000.03</t>
+  </si>
+  <si>
+    <t>2000.04</t>
+  </si>
+  <si>
+    <t>2000.05</t>
+  </si>
+  <si>
+    <t>2000.06</t>
+  </si>
+  <si>
+    <t>2000.07</t>
+  </si>
+  <si>
+    <t>2000.08</t>
+  </si>
+  <si>
+    <t>2000.09</t>
+  </si>
+  <si>
+    <t>2000.10</t>
+  </si>
+  <si>
+    <t>2000.11</t>
+  </si>
+  <si>
+    <t>2000.12</t>
+  </si>
+  <si>
+    <t>2001.01</t>
+  </si>
+  <si>
+    <t>2001.02</t>
+  </si>
+  <si>
+    <t>2001.03</t>
+  </si>
+  <si>
+    <t>2001.04</t>
+  </si>
+  <si>
+    <t>2001.05</t>
+  </si>
+  <si>
+    <t>2001.06</t>
+  </si>
+  <si>
+    <t>2001.07</t>
+  </si>
+  <si>
+    <t>2001.08</t>
+  </si>
+  <si>
+    <t>2001.09</t>
+  </si>
+  <si>
+    <t>2001.10</t>
+  </si>
+  <si>
+    <t>2001.11</t>
+  </si>
+  <si>
+    <t>2001.12</t>
+  </si>
+  <si>
+    <t>2002.01</t>
+  </si>
+  <si>
+    <t>2002.02</t>
+  </si>
+  <si>
+    <t>2002.03</t>
+  </si>
+  <si>
+    <t>2002.04</t>
+  </si>
+  <si>
+    <t>2002.05</t>
+  </si>
+  <si>
+    <t>2002.06</t>
+  </si>
+  <si>
+    <t>2002.07</t>
+  </si>
+  <si>
+    <t>2002.08</t>
+  </si>
+  <si>
+    <t>2002.09</t>
+  </si>
+  <si>
+    <t>2002.10</t>
+  </si>
+  <si>
+    <t>2002.11</t>
+  </si>
+  <si>
+    <t>2002.12</t>
+  </si>
+  <si>
+    <t>2003.01</t>
+  </si>
+  <si>
+    <t>2003.02</t>
+  </si>
+  <si>
+    <t>2003.03</t>
+  </si>
+  <si>
+    <t>2003.04</t>
+  </si>
+  <si>
+    <t>2003.05</t>
+  </si>
+  <si>
+    <t>2003.06</t>
+  </si>
+  <si>
+    <t>2003.07</t>
+  </si>
+  <si>
+    <t>2003.08</t>
+  </si>
+  <si>
+    <t>2003.09</t>
+  </si>
+  <si>
+    <t>2003.10</t>
+  </si>
+  <si>
+    <t>2003.11</t>
+  </si>
+  <si>
+    <t>2003.12</t>
+  </si>
+  <si>
+    <t>2004.01</t>
+  </si>
+  <si>
+    <t>2004.02</t>
+  </si>
+  <si>
+    <t>2004.03</t>
+  </si>
+  <si>
+    <t>2004.04</t>
+  </si>
+  <si>
+    <t>2004.05</t>
+  </si>
+  <si>
+    <t>2004.06</t>
+  </si>
+  <si>
+    <t>2004.07</t>
+  </si>
+  <si>
+    <t>2004.08</t>
+  </si>
+  <si>
+    <t>2004.09</t>
+  </si>
+  <si>
+    <t>2004.10</t>
+  </si>
+  <si>
+    <t>2004.11</t>
+  </si>
+  <si>
+    <t>2004.12</t>
+  </si>
+  <si>
+    <t>2005.01</t>
+  </si>
+  <si>
+    <t>2005.02</t>
+  </si>
+  <si>
+    <t>2005.03</t>
+  </si>
+  <si>
+    <t>2005.04</t>
+  </si>
+  <si>
+    <t>2005.05</t>
+  </si>
+  <si>
+    <t>2005.06</t>
+  </si>
+  <si>
+    <t>2005.07</t>
+  </si>
+  <si>
+    <t>2005.08</t>
+  </si>
+  <si>
+    <t>2005.09</t>
+  </si>
+  <si>
+    <t>2005.10</t>
+  </si>
+  <si>
+    <t>2005.11</t>
+  </si>
+  <si>
+    <t>2005.12</t>
+  </si>
+  <si>
+    <t>2006.01</t>
+  </si>
+  <si>
+    <t>2006.02</t>
+  </si>
+  <si>
+    <t>2006.03</t>
+  </si>
+  <si>
+    <t>2006.04</t>
+  </si>
+  <si>
+    <t>2006.05</t>
+  </si>
+  <si>
+    <t>2006.06</t>
+  </si>
+  <si>
+    <t>2006.07</t>
+  </si>
+  <si>
+    <t>2006.08</t>
+  </si>
+  <si>
+    <t>2006.09</t>
+  </si>
+  <si>
+    <t>2006.10</t>
+  </si>
+  <si>
+    <t>2006.11</t>
+  </si>
+  <si>
+    <t>2006.12</t>
   </si>
 </sst>
 </file>
@@ -715,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,6 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1003,1942 +1292,2806 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A7:G212"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>181</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1">
+        <v>468</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1">
+        <v>469</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="1">
+        <v>470</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1">
+        <v>471</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1">
+        <v>472</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1">
+        <v>473</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>211</v>
       </c>
       <c r="B7" s="1">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>474</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>212</v>
       </c>
       <c r="B8" s="1">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>475</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>213</v>
       </c>
       <c r="B9" s="1">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>476</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>214</v>
       </c>
       <c r="B10" s="1">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>477</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>215</v>
       </c>
       <c r="B11" s="1">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>478</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>216</v>
       </c>
       <c r="B12" s="1">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>479</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>217</v>
       </c>
       <c r="B13" s="1">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>480</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>218</v>
       </c>
       <c r="B14" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>481</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>219</v>
       </c>
       <c r="B15" s="1">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>482</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>220</v>
       </c>
       <c r="B16" s="1">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>483</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>221</v>
       </c>
       <c r="B17" s="1">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="5">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="5">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="5">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="5">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="5">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="5">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="5">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="5">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="5">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>484</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="1">
+        <v>485</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="1">
+        <v>486</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="1">
+        <v>487</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="1">
+        <v>488</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="1">
+        <v>489</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="1">
+        <v>490</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="1">
+        <v>491</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="1">
+        <v>492</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="1">
+        <v>493</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>231</v>
       </c>
       <c r="B27" s="5">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>202</v>
+        <v>494</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>232</v>
       </c>
       <c r="B28" s="5">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>203</v>
+        <v>495</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>233</v>
       </c>
       <c r="B29" s="5">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>496</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>234</v>
       </c>
       <c r="B30" s="5">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>497</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>235</v>
       </c>
       <c r="B31" s="5">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>498</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>236</v>
       </c>
       <c r="B32" s="5">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>177</v>
+        <v>499</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>237</v>
       </c>
       <c r="B33" s="5">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>500</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>238</v>
       </c>
       <c r="B34" s="5">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>501</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>239</v>
       </c>
       <c r="B35" s="5">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="5">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>502</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="1">
+        <v>503</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>241</v>
       </c>
       <c r="B37" s="1">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
+        <v>504</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>242</v>
       </c>
       <c r="B38" s="1">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>505</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>243</v>
       </c>
       <c r="B39" s="1">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>506</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>244</v>
       </c>
       <c r="B40" s="1">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>507</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>245</v>
       </c>
       <c r="B41" s="1">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>508</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>246</v>
       </c>
       <c r="B42" s="1">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>509</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>247</v>
       </c>
       <c r="B43" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>510</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>248</v>
       </c>
       <c r="B44" s="1">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>511</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>249</v>
       </c>
       <c r="B45" s="1">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>512</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>250</v>
       </c>
       <c r="B46" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>513</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>251</v>
       </c>
       <c r="B47" s="1">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>514</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>252</v>
       </c>
       <c r="B48" s="1">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>515</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>253</v>
       </c>
       <c r="B49" s="1">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>516</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>254</v>
       </c>
       <c r="B50" s="1">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>517</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>255</v>
       </c>
       <c r="B51" s="1">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>518</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>256</v>
       </c>
       <c r="B52" s="1">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>519</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>257</v>
       </c>
       <c r="B53" s="1">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>520</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>258</v>
       </c>
       <c r="B54" s="1">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>521</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>259</v>
       </c>
       <c r="B55" s="1">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>522</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>260</v>
       </c>
       <c r="B56" s="1">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>523</v>
+      </c>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>261</v>
       </c>
       <c r="B57" s="1">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>524</v>
+      </c>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>262</v>
       </c>
       <c r="B58" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>525</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>263</v>
       </c>
       <c r="B59" s="1">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>526</v>
+      </c>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>264</v>
       </c>
       <c r="B60" s="1">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>527</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>265</v>
       </c>
       <c r="B61" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>528</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>266</v>
       </c>
       <c r="B62" s="1">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>529</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>267</v>
       </c>
       <c r="B63" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>28</v>
+        <v>530</v>
+      </c>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>268</v>
       </c>
       <c r="B64" s="1">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>531</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>269</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>532</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>270</v>
       </c>
       <c r="B66" s="1">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>533</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>271</v>
       </c>
       <c r="B67" s="1">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>32</v>
+        <v>534</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>272</v>
       </c>
       <c r="B68" s="1">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>535</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>273</v>
       </c>
       <c r="B69" s="1">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>34</v>
+        <v>536</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>274</v>
       </c>
       <c r="B70" s="1">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>35</v>
+        <v>537</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>275</v>
       </c>
       <c r="B71" s="1">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>36</v>
+        <v>538</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>276</v>
       </c>
       <c r="B72" s="1">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>37</v>
+        <v>539</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>277</v>
       </c>
       <c r="B73" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>540</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>278</v>
       </c>
       <c r="B74" s="1">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>39</v>
+        <v>541</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>279</v>
       </c>
       <c r="B75" s="1">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>542</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>280</v>
       </c>
       <c r="B76" s="1">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>543</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>281</v>
       </c>
       <c r="B77" s="1">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>42</v>
+        <v>544</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>282</v>
       </c>
       <c r="B78" s="1">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>43</v>
+        <v>545</v>
+      </c>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>283</v>
       </c>
       <c r="B79" s="1">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>44</v>
+        <v>546</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>284</v>
       </c>
       <c r="B80" s="1">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>285</v>
       </c>
       <c r="B81" s="1">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>46</v>
+        <v>548</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>286</v>
       </c>
       <c r="B82" s="1">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>47</v>
+        <v>549</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>287</v>
       </c>
       <c r="B83" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>550</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>288</v>
       </c>
       <c r="B84" s="1">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>551</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>289</v>
       </c>
       <c r="B85" s="1">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>552</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>290</v>
       </c>
       <c r="B86" s="1">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>51</v>
+        <v>553</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>291</v>
       </c>
       <c r="B87" s="1">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>554</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>292</v>
       </c>
       <c r="B88" s="1">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>555</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>293</v>
       </c>
       <c r="B89" s="1">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>54</v>
+        <v>556</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>294</v>
       </c>
       <c r="B90" s="1">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>55</v>
+        <v>557</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>295</v>
       </c>
       <c r="B91" s="1">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>56</v>
+        <v>558</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>296</v>
       </c>
       <c r="B92" s="1">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>57</v>
+        <v>559</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>297</v>
       </c>
       <c r="B93" s="1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>58</v>
+        <v>560</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>298</v>
       </c>
       <c r="B94" s="1">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>59</v>
+        <v>561</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>299</v>
       </c>
       <c r="B95" s="1">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>562</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>300</v>
       </c>
       <c r="B96" s="1">
-        <v>653</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1">
-        <v>654</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="B98" s="1">
-        <v>655</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="B99" s="1">
-        <v>656</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="B100" s="1">
-        <v>657</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="B101" s="1">
-        <v>658</v>
+        <v>568</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="B102" s="1">
-        <v>659</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="B103" s="1">
-        <v>660</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="B104" s="1">
-        <v>661</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B105" s="1">
-        <v>662</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="B106" s="1">
-        <v>663</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="B107" s="1">
-        <v>664</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="1">
-        <v>665</v>
+        <v>192</v>
+      </c>
+      <c r="B108" s="5">
+        <v>575</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="1">
-        <v>666</v>
+        <v>193</v>
+      </c>
+      <c r="B109" s="5">
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B110" s="1">
-        <v>667</v>
+        <v>194</v>
+      </c>
+      <c r="B110" s="5">
+        <v>577</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B111" s="1">
-        <v>668</v>
+        <v>195</v>
+      </c>
+      <c r="B111" s="5">
+        <v>578</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="1">
-        <v>669</v>
+        <v>196</v>
+      </c>
+      <c r="B112" s="5">
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" s="1">
-        <v>670</v>
+        <v>197</v>
+      </c>
+      <c r="B113" s="5">
+        <v>580</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="1">
-        <v>671</v>
+        <v>198</v>
+      </c>
+      <c r="B114" s="5">
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="1">
-        <v>672</v>
+        <v>199</v>
+      </c>
+      <c r="B115" s="5">
+        <v>582</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B116" s="1">
-        <v>673</v>
+        <v>200</v>
+      </c>
+      <c r="B116" s="5">
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B117" s="1">
-        <v>674</v>
+        <v>201</v>
+      </c>
+      <c r="B117" s="5">
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B118" s="1">
-        <v>675</v>
+        <v>202</v>
+      </c>
+      <c r="B118" s="5">
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="1">
-        <v>676</v>
+        <v>203</v>
+      </c>
+      <c r="B119" s="5">
+        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" s="1">
-        <v>677</v>
+        <v>204</v>
+      </c>
+      <c r="B120" s="5">
+        <v>587</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B121" s="1">
-        <v>678</v>
+        <v>179</v>
+      </c>
+      <c r="B121" s="5">
+        <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B122" s="1">
-        <v>679</v>
+        <v>178</v>
+      </c>
+      <c r="B122" s="5">
+        <v>589</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B123" s="1">
-        <v>680</v>
+        <v>177</v>
+      </c>
+      <c r="B123" s="5">
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B124" s="1">
-        <v>681</v>
+        <v>176</v>
+      </c>
+      <c r="B124" s="5">
+        <v>591</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B125" s="1">
-        <v>682</v>
+      <c r="A125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="5">
+        <v>592</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" s="1">
-        <v>683</v>
+        <v>0</v>
+      </c>
+      <c r="B126" s="5">
+        <v>593</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1">
-        <v>684</v>
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B128" s="1">
-        <v>685</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B129" s="1">
-        <v>686</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1">
-        <v>687</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B131" s="1">
-        <v>688</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B132" s="1">
-        <v>689</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B133" s="1">
-        <v>690</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B134" s="1">
-        <v>691</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B135" s="1">
-        <v>692</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B136" s="1">
-        <v>693</v>
+        <v>603</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B137" s="1">
-        <v>694</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B138" s="1">
-        <v>695</v>
+        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B139" s="1">
-        <v>696</v>
+        <v>606</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B140" s="1">
-        <v>697</v>
+        <v>607</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B141" s="1">
-        <v>698</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B142" s="1">
-        <v>699</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B143" s="1">
-        <v>700</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" s="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="1">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B148" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" s="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" s="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" s="1">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B164" s="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" s="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" s="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" s="1">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" s="1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B177" s="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="1">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B179" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" s="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B186" s="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" s="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190" s="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B191" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B193" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B194" s="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B195" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" s="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197" s="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B198" s="1">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B199" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" s="1">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" s="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B202" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B203" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B204" s="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B205" s="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B206" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207" s="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B209" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B210" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B211" s="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B212" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B213" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B214" s="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" s="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B216" s="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B217" s="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B218" s="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B219" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B220" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B221" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B222" s="1">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B223" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B224" s="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B225" s="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B226" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B227" s="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B228" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B229" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B230" s="1">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B231" s="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B232" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B234" s="1">
         <v>701</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B235" s="1">
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B236" s="1">
         <v>703</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B237" s="1">
         <v>704</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B238" s="1">
         <v>705</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B239" s="1">
         <v>706</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B240" s="1">
         <v>707</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B241" s="1">
         <v>708</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B242" s="1">
         <v>709</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B243" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B244" s="1">
         <v>711</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B245" s="1">
         <v>712</v>
       </c>
-      <c r="D155">
-        <f t="shared" ref="D155:D190" si="0">B155</f>
+      <c r="D245">
+        <f t="shared" ref="D245:D280" si="0">B245</f>
         <v>712</v>
       </c>
-      <c r="E155">
+      <c r="E245">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B246" s="1">
         <v>713</v>
       </c>
-      <c r="D156">
+      <c r="D246">
         <f t="shared" si="0"/>
         <v>713</v>
       </c>
-      <c r="E156">
+      <c r="E246">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B247" s="1">
         <v>714</v>
       </c>
-      <c r="D157">
+      <c r="D247">
         <f t="shared" si="0"/>
         <v>714</v>
       </c>
-      <c r="E157">
+      <c r="E247">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B248" s="1">
         <v>715</v>
       </c>
-      <c r="D158">
+      <c r="D248">
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="E158">
+      <c r="E248">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B249" s="1">
         <v>716</v>
       </c>
-      <c r="D159">
+      <c r="D249">
         <f t="shared" si="0"/>
         <v>716</v>
       </c>
-      <c r="E159">
+      <c r="E249">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B250" s="1">
         <v>717</v>
       </c>
-      <c r="D160">
+      <c r="D250">
         <f t="shared" si="0"/>
         <v>717</v>
       </c>
-      <c r="E160">
+      <c r="E250">
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B251" s="1">
         <v>718</v>
       </c>
-      <c r="D161">
+      <c r="D251">
         <f t="shared" si="0"/>
         <v>718</v>
       </c>
-      <c r="E161">
+      <c r="E251">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B252" s="1">
         <v>719</v>
       </c>
-      <c r="D162">
+      <c r="D252">
         <f t="shared" si="0"/>
         <v>719</v>
       </c>
-      <c r="E162">
+      <c r="E252">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B253" s="5">
         <v>720</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163">
+      <c r="C253" s="4"/>
+      <c r="D253">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="E163">
+      <c r="E253">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B254" s="5">
         <v>721</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164">
+      <c r="C254" s="4"/>
+      <c r="D254">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="E164">
+      <c r="E254">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B255" s="5">
         <v>722</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165">
+      <c r="C255" s="4"/>
+      <c r="D255">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="E165">
+      <c r="E255">
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B256" s="5">
         <v>723</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166">
+      <c r="C256" s="4"/>
+      <c r="D256">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="E166">
+      <c r="E256">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B257" s="1">
         <v>724</v>
       </c>
-      <c r="C167">
+      <c r="C257">
         <v>1</v>
       </c>
-      <c r="D167">
+      <c r="D257">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B258" s="1">
         <v>725</v>
       </c>
-      <c r="C168">
+      <c r="C258">
         <v>2</v>
       </c>
-      <c r="D168">
+      <c r="D258">
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B259" s="1">
         <v>726</v>
       </c>
-      <c r="C169">
+      <c r="C259">
         <v>3</v>
       </c>
-      <c r="D169">
+      <c r="D259">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B260" s="1">
         <v>727</v>
       </c>
-      <c r="C170">
+      <c r="C260">
         <v>4</v>
       </c>
-      <c r="D170">
+      <c r="D260">
         <f t="shared" si="0"/>
         <v>727</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B261" s="1">
         <v>728</v>
       </c>
-      <c r="C171">
+      <c r="C261">
         <v>5</v>
       </c>
-      <c r="D171">
+      <c r="D261">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B262" s="1">
         <v>729</v>
       </c>
-      <c r="C172">
+      <c r="C262">
         <v>6</v>
       </c>
-      <c r="D172">
+      <c r="D262">
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B263" s="1">
         <v>730</v>
       </c>
-      <c r="C173">
+      <c r="C263">
         <v>7</v>
       </c>
-      <c r="D173">
+      <c r="D263">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B264" s="1">
         <v>731</v>
       </c>
-      <c r="C174">
+      <c r="C264">
         <v>8</v>
       </c>
-      <c r="D174">
+      <c r="D264">
         <f t="shared" si="0"/>
         <v>731</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B265" s="1">
         <v>732</v>
       </c>
-      <c r="C175">
+      <c r="C265">
         <v>9</v>
       </c>
-      <c r="D175">
+      <c r="D265">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="E175">
+      <c r="E265">
         <v>731</v>
       </c>
-      <c r="F175">
+      <c r="F265">
         <v>719</v>
       </c>
-      <c r="G175">
+      <c r="G265">
         <v>724</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B266" s="1">
         <v>733</v>
       </c>
-      <c r="C176">
+      <c r="C266">
         <v>10</v>
       </c>
-      <c r="D176">
+      <c r="D266">
         <f t="shared" si="0"/>
         <v>733</v>
       </c>
-      <c r="E176">
+      <c r="E266">
         <v>712</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F266" s="3">
         <v>696</v>
       </c>
-      <c r="G176">
+      <c r="G266">
         <v>708</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B267" s="1">
         <v>734</v>
       </c>
-      <c r="C177">
+      <c r="C267">
         <v>11</v>
       </c>
-      <c r="D177">
+      <c r="D267">
         <f t="shared" si="0"/>
         <v>734</v>
       </c>
-      <c r="E177">
-        <f>E175-E176</f>
+      <c r="E267">
+        <f>E265-E266</f>
         <v>19</v>
       </c>
-      <c r="F177">
-        <f>F175-F176</f>
+      <c r="F267">
+        <f>F265-F266</f>
         <v>23</v>
       </c>
-      <c r="G177">
-        <f>G175-G176</f>
+      <c r="G267">
+        <f>G265-G266</f>
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B268" s="1">
         <v>735</v>
       </c>
-      <c r="C178">
+      <c r="C268">
         <v>12</v>
       </c>
-      <c r="D178">
+      <c r="D268">
         <f t="shared" si="0"/>
         <v>735</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B269" s="1">
         <v>736</v>
       </c>
-      <c r="C179">
+      <c r="C269">
         <v>13</v>
       </c>
-      <c r="D179">
+      <c r="D269">
         <f t="shared" si="0"/>
         <v>736</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B270" s="1">
         <v>737</v>
       </c>
-      <c r="C180">
+      <c r="C270">
         <v>14</v>
       </c>
-      <c r="D180">
+      <c r="D270">
         <f t="shared" si="0"/>
         <v>737</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B271" s="1">
         <v>738</v>
       </c>
-      <c r="C181">
+      <c r="C271">
         <v>15</v>
       </c>
-      <c r="D181">
+      <c r="D271">
         <f t="shared" si="0"/>
         <v>738</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B272" s="1">
         <v>739</v>
       </c>
-      <c r="C182">
+      <c r="C272">
         <v>16</v>
       </c>
-      <c r="D182">
+      <c r="D272">
         <f t="shared" si="0"/>
         <v>739</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B273" s="1">
         <v>740</v>
       </c>
-      <c r="C183">
+      <c r="C273">
         <v>17</v>
       </c>
-      <c r="D183">
+      <c r="D273">
         <f t="shared" si="0"/>
         <v>740</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B274" s="1">
         <v>741</v>
       </c>
-      <c r="C184">
+      <c r="C274">
         <v>18</v>
       </c>
-      <c r="D184">
+      <c r="D274">
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B275" s="1">
         <v>742</v>
       </c>
-      <c r="C185">
+      <c r="C275">
         <v>19</v>
       </c>
-      <c r="D185">
+      <c r="D275">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B276" s="1">
         <v>743</v>
       </c>
-      <c r="C186">
+      <c r="C276">
         <v>20</v>
       </c>
-      <c r="D186">
+      <c r="D276">
         <f t="shared" si="0"/>
         <v>743</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B277" s="1">
         <v>744</v>
       </c>
-      <c r="C187">
+      <c r="C277">
         <v>21</v>
       </c>
-      <c r="D187">
+      <c r="D277">
         <f t="shared" si="0"/>
         <v>744</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B278" s="1">
         <v>745</v>
       </c>
-      <c r="C188">
+      <c r="C278">
         <v>22</v>
       </c>
-      <c r="D188">
+      <c r="D278">
         <f t="shared" si="0"/>
         <v>745</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B279" s="1">
         <v>746</v>
       </c>
-      <c r="C189">
+      <c r="C279">
         <v>23</v>
       </c>
-      <c r="D189">
+      <c r="D279">
         <f t="shared" si="0"/>
         <v>746</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B280" s="1">
         <v>747</v>
       </c>
-      <c r="C190">
+      <c r="C280">
         <v>24</v>
       </c>
-      <c r="D190">
+      <c r="D280">
         <f t="shared" si="0"/>
         <v>747</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>155</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B281" s="1">
         <v>748</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>156</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B282" s="1">
         <v>749</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>157</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B283" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>158</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B284" s="1">
         <v>751</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>159</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B285" s="1">
         <v>752</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>160</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B286" s="1">
         <v>753</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>161</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B287" s="1">
         <v>754</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>162</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B288" s="1">
         <v>755</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>163</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B289" s="1">
         <v>756</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>164</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B290" s="1">
         <v>757</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>165</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B291" s="1">
         <v>758</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>166</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B292" s="1">
         <v>759</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>167</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B293" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>168</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B294" s="1">
         <v>761</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>169</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B295" s="1">
         <v>762</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>170</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B296" s="1">
         <v>763</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>171</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B297" s="1">
         <v>764</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>172</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B298" s="1">
         <v>765</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B299" s="1">
         <v>766</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>174</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B300" s="1">
         <v>767</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>175</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B301" s="1">
         <v>768</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="1">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B302" s="1">
         <v>769</v>
       </c>
     </row>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99640C7-0BA7-4033-A76F-596198CD8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F9ADF-A0F0-4991-B85E-D098F920586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +990,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1003,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,6 +1025,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1292,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W290" sqref="W290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2292,7 +2301,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>197</v>
       </c>
@@ -2300,7 +2309,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>198</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>199</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
@@ -2348,7 +2357,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>204</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>179</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>178</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>177</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>176</v>
       </c>
@@ -2388,7 +2397,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>180</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,143 +2413,194 @@
         <v>593</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="7">
         <v>594</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="7">
         <v>595</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="7">
         <v>596</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="7">
         <v>597</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="7">
         <v>598</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="7">
         <v>599</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="7">
         <v>601</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="7">
         <v>602</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="7">
         <v>603</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="7">
         <v>604</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="7">
         <v>605</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="7">
         <v>606</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="7">
         <v>607</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="7">
         <v>608</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="7">
         <v>609</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="7">
         <v>610</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -3532,11 +3592,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="5">
         <v>724</v>
       </c>
       <c r="C257">
@@ -3547,11 +3607,11 @@
         <v>724</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="5">
         <v>725</v>
       </c>
       <c r="C258">
@@ -3562,11 +3622,11 @@
         <v>725</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="5">
         <v>726</v>
       </c>
       <c r="C259">
@@ -3577,11 +3637,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="7">
         <v>727</v>
       </c>
       <c r="C260">
@@ -3591,12 +3651,15 @@
         <f t="shared" si="0"/>
         <v>727</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="7">
         <v>728</v>
       </c>
       <c r="C261">
@@ -3606,12 +3669,15 @@
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="7">
         <v>729</v>
       </c>
       <c r="C262">
@@ -3621,12 +3687,15 @@
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="7">
         <v>730</v>
       </c>
       <c r="C263">
@@ -3636,12 +3705,15 @@
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="7">
         <v>731</v>
       </c>
       <c r="C264">
@@ -3651,12 +3723,15 @@
         <f t="shared" si="0"/>
         <v>731</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="7">
         <v>732</v>
       </c>
       <c r="C265">
@@ -3675,12 +3750,15 @@
       <c r="G265">
         <v>724</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="7">
         <v>733</v>
       </c>
       <c r="C266">
@@ -3699,12 +3777,15 @@
       <c r="G266">
         <v>708</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="7">
         <v>734</v>
       </c>
       <c r="C267">
@@ -3726,12 +3807,15 @@
         <f>G265-G266</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="7">
         <v>735</v>
       </c>
       <c r="C268">
@@ -3741,12 +3825,15 @@
         <f t="shared" si="0"/>
         <v>735</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="7">
         <v>736</v>
       </c>
       <c r="C269">
@@ -3756,12 +3843,15 @@
         <f t="shared" si="0"/>
         <v>736</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="7">
         <v>737</v>
       </c>
       <c r="C270">
@@ -3771,12 +3861,15 @@
         <f t="shared" si="0"/>
         <v>737</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="7">
         <v>738</v>
       </c>
       <c r="C271">
@@ -3786,12 +3879,15 @@
         <f t="shared" si="0"/>
         <v>738</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="7">
         <v>739</v>
       </c>
       <c r="C272">
@@ -3801,12 +3897,15 @@
         <f t="shared" si="0"/>
         <v>739</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H272">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="7">
         <v>740</v>
       </c>
       <c r="C273">
@@ -3816,12 +3915,15 @@
         <f t="shared" si="0"/>
         <v>740</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H273">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="7">
         <v>741</v>
       </c>
       <c r="C274">
@@ -3831,12 +3933,15 @@
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H274">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="7">
         <v>742</v>
       </c>
       <c r="C275">
@@ -3846,12 +3951,15 @@
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H275">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="7">
         <v>743</v>
       </c>
       <c r="C276">
@@ -3861,8 +3969,11 @@
         <f t="shared" si="0"/>
         <v>743</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H276">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>150</v>
       </c>
@@ -3877,7 +3988,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>152</v>
       </c>
@@ -3892,7 +4003,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>153</v>
       </c>
@@ -3907,7 +4018,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>154</v>
       </c>
@@ -3922,7 +4033,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>155</v>
       </c>
@@ -3930,7 +4041,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>156</v>
       </c>
@@ -3938,7 +4049,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>157</v>
       </c>
@@ -3946,7 +4057,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>158</v>
       </c>
@@ -3954,7 +4065,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>159</v>
       </c>
@@ -3962,7 +4073,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>160</v>
       </c>
@@ -3970,7 +4081,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>161</v>
       </c>
@@ -3978,7 +4089,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>162</v>
       </c>

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F9ADF-A0F0-4991-B85E-D098F920586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72897FA6-730D-4291-B193-F178F27C5E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,7 +945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -970,8 +970,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +1004,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1009,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1026,6 +1046,21 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,8 +1338,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W290" sqref="W290"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3564,7 +3599,7 @@
       <c r="A255" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="10">
         <v>722</v>
       </c>
       <c r="C255" s="4"/>
@@ -3580,7 +3615,7 @@
       <c r="A256" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256" s="11">
         <v>723</v>
       </c>
       <c r="C256" s="4"/>
@@ -3596,7 +3631,7 @@
       <c r="A257" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="11">
         <v>724</v>
       </c>
       <c r="C257">
@@ -3611,7 +3646,7 @@
       <c r="A258" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="11">
         <v>725</v>
       </c>
       <c r="C258">
@@ -3626,7 +3661,7 @@
       <c r="A259" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="12">
         <v>726</v>
       </c>
       <c r="C259">
@@ -3641,7 +3676,7 @@
       <c r="A260" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B260" s="7">
+      <c r="B260" s="10">
         <v>727</v>
       </c>
       <c r="C260">
@@ -3659,7 +3694,7 @@
       <c r="A261" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B261" s="7">
+      <c r="B261" s="8">
         <v>728</v>
       </c>
       <c r="C261">
@@ -3677,7 +3712,7 @@
       <c r="A262" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B262" s="7">
+      <c r="B262" s="8">
         <v>729</v>
       </c>
       <c r="C262">
@@ -3695,7 +3730,7 @@
       <c r="A263" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B263" s="7">
+      <c r="B263" s="8">
         <v>730</v>
       </c>
       <c r="C263">
@@ -3713,7 +3748,7 @@
       <c r="A264" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B264" s="7">
+      <c r="B264" s="8">
         <v>731</v>
       </c>
       <c r="C264">
@@ -3731,7 +3766,7 @@
       <c r="A265" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B265" s="7">
+      <c r="B265" s="8">
         <v>732</v>
       </c>
       <c r="C265">
@@ -3758,7 +3793,7 @@
       <c r="A266" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B266" s="7">
+      <c r="B266" s="8">
         <v>733</v>
       </c>
       <c r="C266">
@@ -3785,7 +3820,7 @@
       <c r="A267" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B267" s="7">
+      <c r="B267" s="8">
         <v>734</v>
       </c>
       <c r="C267">
@@ -3815,7 +3850,7 @@
       <c r="A268" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B268" s="7">
+      <c r="B268" s="8">
         <v>735</v>
       </c>
       <c r="C268">
@@ -3833,7 +3868,7 @@
       <c r="A269" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B269" s="7">
+      <c r="B269" s="8">
         <v>736</v>
       </c>
       <c r="C269">
@@ -3851,7 +3886,7 @@
       <c r="A270" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B270" s="7">
+      <c r="B270" s="8">
         <v>737</v>
       </c>
       <c r="C270">
@@ -3869,7 +3904,7 @@
       <c r="A271" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B271" s="7">
+      <c r="B271" s="8">
         <v>738</v>
       </c>
       <c r="C271">
@@ -3887,7 +3922,7 @@
       <c r="A272" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B272" s="7">
+      <c r="B272" s="9">
         <v>739</v>
       </c>
       <c r="C272">

--- a/LaborShortageUSA/date number.xlsx
+++ b/LaborShortageUSA/date number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72897FA6-730D-4291-B193-F178F27C5E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC1FBD-F619-4F67-A688-E94C92C439DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1336,10 +1336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:J302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D255" sqref="D255"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J254" sqref="J254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3411,7 +3411,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>115</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>116</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>117</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>118</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>119</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>120</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>121</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>122</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>123</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>124</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>125</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>126</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>127</v>
       </c>
@@ -3578,8 +3578,11 @@
       <c r="E253">
         <v>9</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>128</v>
       </c>
@@ -3594,8 +3597,11 @@
       <c r="E254">
         <v>10</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>129</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>130</v>
       </c>
@@ -3626,8 +3632,11 @@
       <c r="E256">
         <v>12</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>131</v>
       </c>
@@ -3641,8 +3650,11 @@
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>132</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>133</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>134</v>
       </c>
@@ -3690,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>135</v>
       </c>
@@ -3708,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>136</v>
       </c>
@@ -3726,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>137</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>138</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>139</v>
       </c>
@@ -3789,7 +3801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>140</v>
       </c>
@@ -3816,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>141</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>142</v>
       </c>
@@ -3864,7 +3876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>143</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>144</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>145</v>
       </c>
@@ -3918,7 +3930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>146</v>
       </c>
